--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="20730" windowHeight="9855"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$86</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
   <si>
     <t>Sl no</t>
   </si>
@@ -439,9 +439,6 @@
     <t>1. Go to dash board&gt;View Captured(Icon) in Inbox</t>
   </si>
   <si>
-    <t>1. Go to dash board&gt;View shared(Icon) in inbox</t>
-  </si>
-  <si>
     <t xml:space="preserve">View Inbox details screen should be displayed </t>
   </si>
   <si>
@@ -709,18 +706,6 @@
     <t>Untestable</t>
   </si>
   <si>
-    <t>The map zoom in and out is working correctly , but In android OS (ICS 4.0.4) not at all user friendly</t>
-  </si>
-  <si>
-    <t>Only displayed as 30 monitors</t>
-  </si>
-  <si>
-    <t>It shouldn’t get updated. If logout and login it will update.</t>
-  </si>
-  <si>
-    <t>after updating a monitor also it still showing a message "No recent monitor"</t>
-  </si>
-  <si>
     <t>it should update monitor with the  "This monitor is not linked to any media  " to "Linked media".</t>
   </si>
   <si>
@@ -740,25 +725,7 @@
 6. click on view Inbox</t>
   </si>
   <si>
-    <t>it should update monitor with the "Linked media" to "his monitor is not linked to any media "</t>
-  </si>
-  <si>
-    <t>all the dates arenot upto date for the range</t>
-  </si>
-  <si>
-    <t>The count of the monitors and in mobile and web is cross verified</t>
-  </si>
-  <si>
-    <t>No monitor images are displayed in shared screen.</t>
-  </si>
-  <si>
     <t>3G Network the images are not displayed</t>
-  </si>
-  <si>
-    <t>IN THE OFFLINE MODE Date Picker is not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> month date is not correctly displayed.</t>
   </si>
   <si>
     <t>With Snapooh monitor logged in with 'info' account and Monitor view app logged in with 'monitordemo' account
@@ -794,26 +761,6 @@
   </si>
   <si>
     <t>BUG ID:1956</t>
-  </si>
-  <si>
-    <t>Login as monitordemo@snapooh.com
-1. Go to web app Monitor view&gt;Inbox
-2. Select a monitor 
-3. click on share Icon
-4. Share a monitor to the another account( Ex: info@snapooh.com)
-Go to monitor view app and login with info@snapooh.com
-1. Go to dashboard&gt;View Inbox
-2. Select the shared Monitor
-Actual: The shared (shared by the Owner of same account)  icon is displayed.
-Expected: If the monitor is shared by someone, then hand shown icon should appear.</t>
-  </si>
-  <si>
-    <t>1. In the Dashboard, select any date option other than 'today'
-2. The inbox and shared counter updates as per the option selected.
-3. Press the 'home' button on the phone
-4. Return back to the app.
-Actual Result: The app resets the date option to 'today' on returning back.
-Expected Result: The app must return back to the date option selected by the user before pressing the 'home' button</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -835,11 +782,6 @@
     <t>cross accounts notification check</t>
   </si>
   <si>
-    <t xml:space="preserve">Monitor view Dashboard screen must appear.
-And the recent monitor list must be updated with the latest monitor
-</t>
-  </si>
-  <si>
     <t>recent monitor list is not refreshed</t>
   </si>
   <si>
@@ -868,13 +810,104 @@
   </si>
   <si>
     <t>Build Number: 3.0 (17 june 2015)</t>
+  </si>
+  <si>
+    <t>it should update monitor with the "Linked media" to "this monitor is not linked to any media "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor view Dashboard screen must appear.
+And the recent monitor list must be updated with the latest monitor. OR More then 2 notifications it should go to the Inbox details screen.
+</t>
+  </si>
+  <si>
+    <t>Should take you to Snapooh view</t>
+  </si>
+  <si>
+    <t>The Shared count(Some one to Owner) is not adding .</t>
+  </si>
+  <si>
+    <t>Have a doubt of Last 7days</t>
+  </si>
+  <si>
+    <t>Try again Message is displayed</t>
+  </si>
+  <si>
+    <t>Sending a Monitor Message is not displayed</t>
+  </si>
+  <si>
+    <t>Loading the monitors are failed</t>
+  </si>
+  <si>
+    <t>Share Icon is not displaying.</t>
+  </si>
+  <si>
+    <t>If the monitor is shared by someone, then hand shown icon should appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as monitordemo@snapooh.com
+1. Go to web app Monitor view&gt;Inbox
+2. Select a monitor 
+3. click on share Icon
+4. Share a monitor to the another account( Ex: info@snapooh.com)
+Go to monitor view app and login with info@snapooh.com
+1. Go to dashboard&gt;View Inbox
+2. Select the shared Monitor
+</t>
+  </si>
+  <si>
+    <t>The app must return back to the date option selected by the user before pressing the 'home' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the Dashboard, select any date option other than 'today'
+2. The inbox and shared counter updates as per the option selected.
+3. Press the 'home' button on the phone
+4. Return back to the app.
+</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;View shared( Hand shownIcon) in inbox</t>
+  </si>
+  <si>
+    <t>The Shared count is not updating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App  Crashed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last 7days</t>
+  </si>
+  <si>
+    <t>Yestardays monitors are updated for today</t>
+  </si>
+  <si>
+    <t>Invalid email id accepting in the not the range</t>
+  </si>
+  <si>
+    <t>1. Go to Inox details&gt;Share.
+2. Select out of 5 , select 3 Images .
+3. Enter a valid email and share.</t>
+  </si>
+  <si>
+    <t>The Monitor Should share with the selected images</t>
+  </si>
+  <si>
+    <t>Unable to test</t>
+  </si>
+  <si>
+    <t>Unable to test in Android OS V4.0.4</t>
+  </si>
+  <si>
+    <t>Thumbnail of media and size is not displayed</t>
+  </si>
+  <si>
+    <t>Recent monitor not updated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,8 +995,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1058,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1147,12 +1213,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1217,6 +1284,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1224,12 +1309,34 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1336,7 +1443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1371,7 +1477,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1547,15 +1652,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G76"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1568,50 +1673,50 @@
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="C1" s="15"/>
-      <c r="D1" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="33"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="C2" s="15"/>
       <c r="D2" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="19">
         <f>COUNTIF(G6:G88, "Pass")</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="15"/>
       <c r="D3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="21">
         <f>COUNTIF(G6:G88, "Fail")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="C4" s="15"/>
       <c r="D4" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="23">
         <f>COUNTIF(G6:G88, "unable to test")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1659,11 +1764,13 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1674,13 +1781,15 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1693,11 +1802,13 @@
       <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1710,79 +1821,89 @@
       <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9" s="26" customFormat="1" ht="30">
+      <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A13" s="4">
         <v>7</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1801,13 +1922,15 @@
       <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -1824,11 +1947,13 @@
       <c r="F15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1843,13 +1968,15 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1864,13 +1991,15 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -1887,11 +2016,13 @@
       <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -1908,11 +2039,13 @@
       <c r="F19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -1929,11 +2062,13 @@
       <c r="F20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="39">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -1950,13 +2085,15 @@
       <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="77.25" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="77.25">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -1965,17 +2102,19 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="90">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -1990,76 +2129,84 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H23" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="4">
         <v>18</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10">
         <v>1957</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="4">
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H25" s="10" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51.75">
       <c r="A26" s="4">
         <v>20</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H26" s="10" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -2076,15 +2223,15 @@
       <c r="F27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="G27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -2093,55 +2240,61 @@
         <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A29" s="4">
         <v>23</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A30" s="4">
         <v>24</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="G30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -2154,177 +2307,201 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="141">
       <c r="A32" s="4">
         <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H32" s="10" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A33" s="4">
         <v>27</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H33" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="60">
       <c r="A34" s="4">
         <v>28</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A35" s="4">
         <v>29</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="12" t="s">
-        <v>142</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="90">
       <c r="A36" s="4">
         <v>30</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="90">
       <c r="A37" s="4">
         <v>31</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I37" s="6">
         <v>1948</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="180">
       <c r="A38" s="4">
         <v>32</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" s="31" customFormat="1" ht="75">
+      <c r="A39" s="11">
+        <v>33</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>33</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="G39" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A40" s="4">
         <v>34</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="64.5">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -2335,21 +2512,23 @@
         <v>31</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="26.25">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -2358,17 +2537,19 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="51.75">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -2383,11 +2564,13 @@
       <c r="F43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="39">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -2396,17 +2579,21 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -2414,16 +2601,18 @@
         <v>42146</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="153.75">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -2432,16 +2621,20 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="60">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -2449,16 +2642,18 @@
         <v>42149</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="39">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -2469,17 +2664,19 @@
         <v>42</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="39">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -2496,13 +2693,15 @@
       <c r="F49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="39">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -2513,14 +2712,16 @@
         <v>47</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="26.25">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -2529,12 +2730,14 @@
       <c r="D51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I51" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -2545,11 +2748,13 @@
         <v>58</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="105">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -2557,20 +2762,22 @@
         <v>42149</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -2583,9 +2790,11 @@
       <c r="F54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="G54" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="105">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -2593,20 +2802,16 @@
         <v>42149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="150">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -2617,27 +2822,28 @@
         <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="4">
         <v>51</v>
       </c>
       <c r="B57" s="5"/>
       <c r="D57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G57" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="60">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -2645,14 +2851,19 @@
         <v>42149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="60">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -2660,14 +2871,19 @@
         <v>42149</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G59" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -2677,39 +2893,51 @@
       <c r="F60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="G60" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="4">
         <v>55</v>
       </c>
       <c r="B61" s="5">
         <v>42149</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>137</v>
+      <c r="D61" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="135">
       <c r="A62" s="4">
         <v>56</v>
       </c>
       <c r="B62" s="5">
         <v>42149</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="D62" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="105">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -2717,45 +2945,59 @@
         <v>42149</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="I63" s="1">
         <v>1937</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="195">
       <c r="A64" s="4">
         <v>58</v>
       </c>
       <c r="B64" s="5">
         <v>42149</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="D64" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="120">
       <c r="A65" s="4">
         <v>59</v>
       </c>
       <c r="B65" s="5">
         <v>42149</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>158</v>
+      <c r="D65" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="I65" s="1">
         <v>1955</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="300">
       <c r="A66" s="4">
         <v>60</v>
       </c>
@@ -2763,21 +3005,33 @@
         <v>42149</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="I66" s="1">
         <v>1749</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="4">
         <v>61</v>
       </c>
       <c r="B67" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>62</v>
       </c>
@@ -2785,7 +3039,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>63</v>
       </c>
@@ -2793,7 +3047,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4">
         <v>64</v>
       </c>
@@ -2801,7 +3055,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4">
         <v>65</v>
       </c>
@@ -2809,7 +3063,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4">
         <v>66</v>
       </c>
@@ -2817,7 +3071,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4">
         <v>67</v>
       </c>
@@ -2825,7 +3079,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4">
         <v>68</v>
       </c>
@@ -2833,7 +3087,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <v>69</v>
       </c>
@@ -2841,79 +3095,81 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="4">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I86"/>
+  <autoFilter ref="A5:I86">
+    <filterColumn colId="6"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G63">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="G6:G67">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G67">
       <formula1>"Pass, Fail, Unable to test"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="20730" windowHeight="9855"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$87</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
   <si>
     <t>Sl no</t>
   </si>
@@ -736,33 +736,6 @@
     <t>Monitor view app must not receive a notification as the monitor uploaded is from a different account</t>
   </si>
   <si>
-    <t>BUG ID:1941</t>
-  </si>
-  <si>
-    <t>BUG ID: 1941</t>
-  </si>
-  <si>
-    <t>BUG ID: 1738</t>
-  </si>
-  <si>
-    <t>BUG ID: 1938</t>
-  </si>
-  <si>
-    <t>BUG ID:1754</t>
-  </si>
-  <si>
-    <t>BUG ID:1753</t>
-  </si>
-  <si>
-    <t>BUG ID:1940</t>
-  </si>
-  <si>
-    <t>BUG ID:1762</t>
-  </si>
-  <si>
-    <t>BUG ID:1956</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. Go to web app Monitor view&gt;Inbox.
 2. select a monitor.
@@ -796,9 +769,6 @@
     <t>The tags, alerts and notes icon must be appear for the monitor in the recent list</t>
   </si>
   <si>
-    <t>1738, 1958</t>
-  </si>
-  <si>
     <t>share functionality was not testable</t>
   </si>
   <si>
@@ -868,9 +838,6 @@
     <t>1. Go to dash board&gt;View shared( Hand shownIcon) in inbox</t>
   </si>
   <si>
-    <t>The Shared count is not updating</t>
-  </si>
-  <si>
     <t xml:space="preserve">App  Crashed </t>
   </si>
   <si>
@@ -901,13 +868,21 @@
   </si>
   <si>
     <t>Recent monitor not updated.</t>
+  </si>
+  <si>
+    <t>With no Internet
+1. Go to dash board&gt;Recent monitors
+2. click on any monitor.</t>
+  </si>
+  <si>
+    <t>The app must display the message "Unable to connect to the internet"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1212,6 +1187,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1219,7 +1207,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1256,7 +1244,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1308,6 +1295,11 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1443,6 +1435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1477,6 +1470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1652,15 +1646,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1673,50 +1667,50 @@
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
-      <c r="C1" s="15"/>
-      <c r="D1" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="C2" s="15"/>
-      <c r="D2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="19">
-        <f>COUNTIF(G6:G88, "Pass")</f>
-        <v>37</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3" s="15"/>
-      <c r="D3" s="20" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="14"/>
+      <c r="D2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="18">
+        <f>COUNTIF(G6:G89, "Pass")</f>
+        <v>38</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="21">
-        <f>COUNTIF(G6:G88, "Fail")</f>
+      <c r="E3" s="20">
+        <f>COUNTIF(G6:G89, "Fail")</f>
         <v>20</v>
       </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="C4" s="15"/>
-      <c r="D4" s="22" t="s">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="14"/>
+      <c r="D4" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="23">
-        <f>COUNTIF(G6:G88, "unable to test")</f>
+      <c r="E4" s="22">
+        <f>COUNTIF(G6:G89, "unable to test")</f>
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F4" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1770,7 +1764,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1781,7 +1775,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>128</v>
@@ -1789,7 +1783,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1808,7 +1802,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1827,7 +1821,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1846,16 +1840,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>128</v>
@@ -1863,28 +1857,28 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="30">
-      <c r="A12" s="24">
+    <row r="12" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>6</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="30">
+      <c r="G12" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -1903,7 +1897,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1926,11 +1920,13 @@
         <v>129</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75">
+        <v>163</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -1951,9 +1947,11 @@
         <v>129</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
+      <c r="I15" s="4">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1976,7 +1974,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1999,7 +1997,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -2022,7 +2020,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -2045,7 +2043,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -2068,7 +2066,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="39">
+    <row r="21" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -2089,11 +2087,9 @@
         <v>128</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="77.25">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -2114,7 +2110,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="90">
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -2135,11 +2131,11 @@
         <v>129</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="45">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -2156,11 +2152,9 @@
         <v>128</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="10">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -2177,13 +2171,11 @@
         <v>129</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51.75">
+        <v>162</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -2200,13 +2192,11 @@
         <v>129</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="39">
+        <v>151</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -2227,11 +2217,9 @@
         <v>128</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -2250,11 +2238,13 @@
         <v>129</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75">
+        <v>169</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -2273,7 +2263,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -2290,11 +2280,9 @@
         <v>128</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="39">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -2315,7 +2303,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="141">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -2324,245 +2312,244 @@
       <c r="D32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="10" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="51.75">
-      <c r="A33" s="4">
-        <v>27</v>
-      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="6">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>113</v>
+        <v>171</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="60">
+      <c r="H33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="12" t="s">
-        <v>71</v>
+      <c r="D34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="75">
+        <v>129</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="90">
+        <v>167</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="90">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="180">
+      <c r="H37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="31" customFormat="1" ht="75">
-      <c r="A39" s="11">
+      <c r="H39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>33</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="28" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="105">
-      <c r="A40" s="4">
+      <c r="G40" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="1" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="8" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="64.5">
-      <c r="A41" s="4">
+      <c r="G41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>35</v>
-      </c>
-      <c r="B41" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="26.25">
-      <c r="A42" s="4">
-        <v>36</v>
       </c>
       <c r="B42" s="5">
         <v>42146</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="51.75">
+        <v>129</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="5">
         <v>42146</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>128</v>
@@ -2570,41 +2557,41 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="39">
+    <row r="44" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="5">
         <v>42146</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5">
         <v>42146</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>121</v>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>128</v>
@@ -2612,63 +2599,61 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="153.75">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="5">
         <v>42146</v>
       </c>
-      <c r="C46" s="4"/>
       <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>40</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="60">
-      <c r="A47" s="4">
+      <c r="H47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>41</v>
-      </c>
-      <c r="B47" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="39">
-      <c r="A48" s="4">
-        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>42149</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>43</v>
+      <c r="D48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>128</v>
@@ -2676,488 +2661,498 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="39">
+    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="5">
         <v>42149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="I49" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="39">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="5">
         <v>42149</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42149</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="26.25">
-      <c r="A51" s="4">
+      <c r="G51" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>45</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="60">
-      <c r="A52" s="4">
+      <c r="I52" s="9">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>46</v>
-      </c>
-      <c r="B52" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="105">
-      <c r="A53" s="4">
-        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>42149</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="5">
         <v>42149</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="105">
+      <c r="D54" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="5">
         <v>42149</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="150">
+      <c r="D55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5">
         <v>42149</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>50</v>
+      </c>
+      <c r="B57" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="60">
-      <c r="A57" s="4">
+      <c r="F57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>51</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="D57" s="1" t="s">
+      <c r="B58" s="5"/>
+      <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="60">
-      <c r="A58" s="4">
+      <c r="G58" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>52</v>
-      </c>
-      <c r="B58" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="60">
-      <c r="A59" s="4">
-        <v>53</v>
       </c>
       <c r="B59" s="5">
         <v>42149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="5">
         <v>42149</v>
       </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="135">
+        <v>77</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="5">
         <v>42149</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="135">
+    </row>
+    <row r="62" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="5">
         <v>42149</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>129</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="105">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="5">
         <v>42149</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="195">
+      <c r="G63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="5">
         <v>42149</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>167</v>
+      <c r="C64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="120">
+        <v>136</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="5">
         <v>42149</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="300">
+        <v>156</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="5">
         <v>42149</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="45">
+      <c r="D66" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="5">
         <v>42149</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="17" t="s">
+      <c r="D67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="D68" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="5">
         <v>42149</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
+        <v>69</v>
+      </c>
+      <c r="B76" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I86">
-    <filterColumn colId="6"/>
-  </autoFilter>
+  <autoFilter ref="A5:I87"/>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G67">
+  <conditionalFormatting sqref="G6:G68">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
@@ -3169,7 +3164,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G68">
       <formula1>"Pass, Fail, Unable to test"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
@@ -1315,28 +1315,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1653,11 +1632,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1745,7 +1725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1770,7 +1750,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1789,7 +1769,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1808,7 +1788,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1827,7 +1807,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="26.25" hidden="1" thickTop="1">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1846,7 +1826,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="26.25" hidden="1" thickTop="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1863,7 +1843,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="30">
+    <row r="12" spans="1:9" s="26" customFormat="1" ht="30.75" hidden="1" thickTop="1">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -1884,7 +1864,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30.75" hidden="1" thickTop="1">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -1903,7 +1883,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1930,7 +1910,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -1953,7 +1933,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1976,7 +1956,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1999,7 +1979,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -2022,7 +2002,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -2045,7 +2025,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -2068,7 +2048,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="39">
+    <row r="21" spans="1:9" ht="39.75" hidden="1" thickTop="1">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -2093,7 +2073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="77.25">
+    <row r="22" spans="1:9" ht="78" hidden="1" thickTop="1">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -2114,7 +2094,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="90">
+    <row r="23" spans="1:9" ht="90.75" hidden="1" thickTop="1">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -2139,7 +2119,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="45">
+    <row r="24" spans="1:9" ht="45.75" hidden="1" thickTop="1">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -2160,7 +2140,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45">
+    <row r="25" spans="1:9" ht="45.75" hidden="1" thickTop="1">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -2183,7 +2163,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51.75">
+    <row r="26" spans="1:9" ht="52.5" hidden="1" thickTop="1">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -2206,7 +2186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="39">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="39.75" hidden="1" thickTop="1">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -2231,7 +2211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="129" hidden="1" thickTop="1">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -2254,7 +2234,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -2273,7 +2253,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -2294,7 +2274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="39">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="39.75" hidden="1" thickTop="1">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -2315,7 +2295,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="141">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="141.75" hidden="1" thickTop="1">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -2338,7 +2318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -2360,7 +2340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="60">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="60.75" hidden="1" thickTop="1">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -2379,7 +2359,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="75">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="75.75" hidden="1" thickTop="1">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -2398,7 +2378,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="90">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="90.75" hidden="1" thickTop="1">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -2419,7 +2399,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="90">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="90.75" hidden="1" thickTop="1">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -2442,7 +2422,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="180">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="180.75" hidden="1" thickTop="1">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -2463,7 +2443,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="31" customFormat="1" ht="75">
+    <row r="39" spans="1:9" s="31" customFormat="1" ht="75.75" hidden="1" thickTop="1">
       <c r="A39" s="11">
         <v>33</v>
       </c>
@@ -2482,7 +2462,7 @@
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="105.75" hidden="1" thickTop="1">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -2501,7 +2481,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="64.5">
+    <row r="41" spans="1:9" ht="65.25" hidden="1" thickTop="1">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -2528,7 +2508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="26.25">
+    <row r="42" spans="1:9" ht="27" hidden="1" thickTop="1">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -2549,7 +2529,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="51.75">
+    <row r="43" spans="1:9" ht="52.5" hidden="1" thickTop="1">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -2570,7 +2550,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="39">
+    <row r="44" spans="1:9" ht="39.75" hidden="1" thickTop="1">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -2593,7 +2573,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="15.75" hidden="1" thickTop="1">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -2612,7 +2592,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="153.75">
+    <row r="46" spans="1:9" ht="154.5" hidden="1" thickTop="1">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -2634,7 +2614,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="60">
+    <row r="47" spans="1:9" ht="60.75" hidden="1" thickTop="1">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -2653,7 +2633,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39">
+    <row r="48" spans="1:9" ht="39.75" hidden="1" thickTop="1">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -2676,7 +2656,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="39">
+    <row r="49" spans="1:9" ht="39.75" hidden="1" thickTop="1">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -2701,7 +2681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="39">
+    <row r="50" spans="1:9" ht="39.75" hidden="1" thickTop="1">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -2721,7 +2701,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26.25">
+    <row r="51" spans="1:9" ht="27" hidden="1" thickTop="1">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -2737,7 +2717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="60.75" hidden="1" thickTop="1">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -2754,7 +2734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="105">
+    <row r="53" spans="1:9" ht="105.75" hidden="1" thickTop="1">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -2777,7 +2757,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45">
+    <row r="54" spans="1:9" ht="45.75" hidden="1" thickTop="1">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -2794,7 +2774,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="105">
+    <row r="55" spans="1:9" ht="105.75" hidden="1" thickTop="1">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -2811,7 +2791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="150">
+    <row r="56" spans="1:9" ht="150.75" hidden="1" thickTop="1">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -2828,7 +2808,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="60">
+    <row r="57" spans="1:9" ht="60.75" hidden="1" thickTop="1">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -2843,7 +2823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60">
+    <row r="58" spans="1:9" ht="60.75" hidden="1" thickTop="1">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -2863,7 +2843,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60">
+    <row r="59" spans="1:9" ht="60.75" hidden="1" thickTop="1">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -2883,7 +2863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="45.75" hidden="1" thickTop="1">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -2897,7 +2877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="135">
+    <row r="61" spans="1:9" ht="135.75" hidden="1" thickTop="1">
       <c r="A61" s="4">
         <v>55</v>
       </c>
@@ -2917,7 +2897,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="135">
+    <row r="62" spans="1:9" ht="135.75" hidden="1" thickTop="1">
       <c r="A62" s="4">
         <v>56</v>
       </c>
@@ -2937,7 +2917,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105">
+    <row r="63" spans="1:9" ht="105.75" hidden="1" thickTop="1">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -2960,7 +2940,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="195">
+    <row r="64" spans="1:9" ht="195.75" hidden="1" thickTop="1">
       <c r="A64" s="4">
         <v>58</v>
       </c>
@@ -2977,7 +2957,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="120">
+    <row r="65" spans="1:9" ht="120.75" hidden="1" thickTop="1">
       <c r="A65" s="4">
         <v>59</v>
       </c>
@@ -2997,7 +2977,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="300">
+    <row r="66" spans="1:9" ht="300.75" hidden="1" thickTop="1">
       <c r="A66" s="4">
         <v>60</v>
       </c>
@@ -3014,7 +2994,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="45">
+    <row r="67" spans="1:9" ht="45.75" hidden="1" thickTop="1">
       <c r="A67" s="4">
         <v>61</v>
       </c>
@@ -3031,7 +3011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="15.75" thickTop="1">
       <c r="A68" s="4">
         <v>62</v>
       </c>
@@ -3152,19 +3132,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:I86">
-    <filterColumn colId="6"/>
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G67">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW 3.0.xlsx
@@ -1632,12 +1632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,7 +1724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="39" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1750,7 +1749,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1769,7 +1768,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1788,7 +1787,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1807,7 +1806,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="26.25" hidden="1" thickTop="1">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1826,7 +1825,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="26.25" hidden="1" thickTop="1">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1843,7 +1842,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="30.75" hidden="1" thickTop="1">
+    <row r="12" spans="1:9" s="26" customFormat="1" ht="30">
       <c r="A12" s="24">
         <v>6</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="30.75" hidden="1" thickTop="1">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -1883,7 +1882,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1910,7 +1909,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -1933,7 +1932,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1956,7 +1955,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -2025,7 +2024,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -2048,7 +2047,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="39.75" hidden="1" thickTop="1">
+    <row r="21" spans="1:9" ht="39">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="78" hidden="1" thickTop="1">
+    <row r="22" spans="1:9" ht="77.25">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -2094,7 +2093,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="90.75" hidden="1" thickTop="1">
+    <row r="23" spans="1:9" ht="90">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -2119,7 +2118,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="45.75" hidden="1" thickTop="1">
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45.75" hidden="1" thickTop="1">
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="52.5" hidden="1" thickTop="1">
+    <row r="26" spans="1:9" ht="51.75">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="39.75" hidden="1" thickTop="1">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="129" hidden="1" thickTop="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="128.25">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -2234,7 +2233,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -2253,7 +2252,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="39.75" hidden="1" thickTop="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -2295,7 +2294,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="141.75" hidden="1" thickTop="1">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="141">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="52.5" hidden="1" thickTop="1">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="60.75" hidden="1" thickTop="1">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="60">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -2359,7 +2358,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="75.75" hidden="1" thickTop="1">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="90.75" hidden="1" thickTop="1">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="90">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -2399,7 +2398,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="90.75" hidden="1" thickTop="1">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="90">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="180.75" hidden="1" thickTop="1">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="180">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -2443,7 +2442,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="31" customFormat="1" ht="75.75" hidden="1" thickTop="1">
+    <row r="39" spans="1:9" s="31" customFormat="1" ht="75">
       <c r="A39" s="11">
         <v>33</v>
       </c>
@@ -2462,7 +2461,7 @@
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="105.75" hidden="1" thickTop="1">
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -2481,7 +2480,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="65.25" hidden="1" thickTop="1">
+    <row r="41" spans="1:9" ht="64.5">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="27" hidden="1" thickTop="1">
+    <row r="42" spans="1:9" ht="26.25">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -2529,7 +2528,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="52.5" hidden="1" thickTop="1">
+    <row r="43" spans="1:9" ht="51.75">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -2550,7 +2549,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="39.75" hidden="1" thickTop="1">
+    <row r="44" spans="1:9" ht="39">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -2573,7 +2572,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" hidden="1" thickTop="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -2592,7 +2591,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="154.5" hidden="1" thickTop="1">
+    <row r="46" spans="1:9" ht="153.75">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -2614,7 +2613,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="60.75" hidden="1" thickTop="1">
+    <row r="47" spans="1:9" ht="60">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39.75" hidden="1" thickTop="1">
+    <row r="48" spans="1:9" ht="39">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -2656,7 +2655,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="39.75" hidden="1" thickTop="1">
+    <row r="49" spans="1:9" ht="39">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="39.75" hidden="1" thickTop="1">
+    <row r="50" spans="1:9" ht="39">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="27" hidden="1" thickTop="1">
+    <row r="51" spans="1:9" ht="26.25">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60.75" hidden="1" thickTop="1">
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="105.75" hidden="1" thickTop="1">
+    <row r="53" spans="1:9" ht="105">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45.75" hidden="1" thickTop="1">
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="105.75" hidden="1" thickTop="1">
+    <row r="55" spans="1:9" ht="105">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="150.75" hidden="1" thickTop="1">
+    <row r="56" spans="1:9" ht="150">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="60.75" hidden="1" thickTop="1">
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60.75" hidden="1" thickTop="1">
+    <row r="58" spans="1:9" ht="60">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60.75" hidden="1" thickTop="1">
+    <row r="59" spans="1:9" ht="60">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45.75" hidden="1" thickTop="1">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="135.75" hidden="1" thickTop="1">
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="4">
         <v>55</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="135.75" hidden="1" thickTop="1">
+    <row r="62" spans="1:9" ht="135">
       <c r="A62" s="4">
         <v>56</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105.75" hidden="1" thickTop="1">
+    <row r="63" spans="1:9" ht="105">
       <c r="A63" s="4">
         <v>57</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="195.75" hidden="1" thickTop="1">
+    <row r="64" spans="1:9" ht="195">
       <c r="A64" s="4">
         <v>58</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="120.75" hidden="1" thickTop="1">
+    <row r="65" spans="1:9" ht="120">
       <c r="A65" s="4">
         <v>59</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="300.75" hidden="1" thickTop="1">
+    <row r="66" spans="1:9" ht="300">
       <c r="A66" s="4">
         <v>60</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="45.75" hidden="1" thickTop="1">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="4">
         <v>61</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickTop="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>62</v>
       </c>
@@ -3132,9 +3131,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:I86">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
